--- a/OnlineTailoringStore/Documents/Product_Backlog-B023-OnlineTailoringStore.xlsx
+++ b/OnlineTailoringStore/Documents/Product_Backlog-B023-OnlineTailoringStore.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13560" windowHeight="10470" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19755" windowHeight="9210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="7" r:id="rId1"/>
@@ -86,7 +86,7 @@
     <definedName name="Type" localSheetId="3">#REF!</definedName>
     <definedName name="Type">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <oleSize ref="A1:P4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="141">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -610,12 +610,6 @@
     <t>As a system, I should be able to generate bill</t>
   </si>
   <si>
-    <t>1. Once the Tailor approves the order, the system should generate the bill.
-2. Tailor should be able to update the bill amount if required.
-3. The details should be saved to the DB.
-4. Appropriate message should be displayed to the user.</t>
-  </si>
-  <si>
     <t>View status</t>
   </si>
   <si>
@@ -685,7 +679,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yy"/>
   </numFmts>
@@ -1735,7 +1729,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1843,7 +1837,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-32C2-465F-AAB4-7E4A2D206234}"/>
             </c:ext>
@@ -1904,7 +1898,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-32C2-465F-AAB4-7E4A2D206234}"/>
             </c:ext>
@@ -2060,7 +2054,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2138,7 +2132,7 @@
         <xdr:cNvPr id="3" name="Line 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2192,7 +2186,7 @@
         <xdr:cNvPr id="4" name="Line 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2246,7 +2240,7 @@
         <xdr:cNvPr id="6" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2307,7 +2301,7 @@
         <xdr:cNvPr id="7" name="Text Box 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2385,7 +2379,7 @@
         <xdr:cNvPr id="8" name="Line 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2439,7 +2433,7 @@
         <xdr:cNvPr id="9" name="Line 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2493,7 +2487,7 @@
         <xdr:cNvPr id="11" name="Text Box 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2571,7 +2565,7 @@
         <xdr:cNvPr id="12" name="Line 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2625,7 +2619,7 @@
         <xdr:cNvPr id="13" name="Line 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2679,7 +2673,7 @@
         <xdr:cNvPr id="15" name="Text Box 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2757,7 +2751,7 @@
         <xdr:cNvPr id="16" name="Picture 20" descr="content">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2831,7 +2825,7 @@
         <xdr:cNvPr id="17" name="Line 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2885,7 +2879,7 @@
         <xdr:cNvPr id="18" name="Line 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3095,7 +3089,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3826,7 +3820,7 @@
     <row r="30" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20"/>
       <c r="B30" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C30" s="21" t="s">
         <v>8</v>
@@ -4130,9 +4124,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -4151,7 +4145,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="58" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="109" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" s="109"/>
       <c r="C1" s="109"/>
@@ -4633,7 +4627,7 @@
         <v>101</v>
       </c>
       <c r="B16" s="81" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C16" s="81" t="s">
         <v>90</v>
@@ -4642,7 +4636,7 @@
         <v>120</v>
       </c>
       <c r="E16" s="81" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F16" s="86">
         <v>2</v>
@@ -4692,7 +4686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="84" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A18" s="81" t="s">
         <v>105</v>
       </c>
@@ -4705,9 +4699,7 @@
       <c r="D18" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="E18" s="81" t="s">
-        <v>128</v>
-      </c>
+      <c r="E18" s="81"/>
       <c r="F18" s="86">
         <v>2</v>
       </c>
@@ -4729,16 +4721,16 @@
         <v>116</v>
       </c>
       <c r="B19" s="81" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" s="81" t="s">
         <v>85</v>
       </c>
       <c r="D19" s="81" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="81" t="s">
         <v>130</v>
-      </c>
-      <c r="E19" s="81" t="s">
-        <v>131</v>
       </c>
       <c r="F19" s="86">
         <v>2</v>
@@ -4761,16 +4753,16 @@
         <v>117</v>
       </c>
       <c r="B20" s="81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C20" s="81" t="s">
         <v>90</v>
       </c>
       <c r="D20" s="81" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="81" t="s">
         <v>133</v>
-      </c>
-      <c r="E20" s="81" t="s">
-        <v>134</v>
       </c>
       <c r="F20" s="86">
         <v>2</v>
@@ -4793,16 +4785,16 @@
         <v>119</v>
       </c>
       <c r="B21" s="81" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C21" s="81" t="s">
         <v>85</v>
       </c>
       <c r="D21" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="81" t="s">
         <v>138</v>
-      </c>
-      <c r="E21" s="81" t="s">
-        <v>139</v>
       </c>
       <c r="F21" s="86">
         <v>2</v>
@@ -5128,6 +5120,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009638BFDE8F139840BAEEC6E7A932ED0C" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3c81b4706ce66aef51d7e5ff86a14741">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9f50c8a6-e5a4-43ce-b67f-ee4bc8ad8584" xmlns:ns3="951c5514-b77c-4532-82d5-a05f2f7d58e2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b7a08be4b984a782348ed6d73d60f18" ns2:_="" ns3:_="">
     <xsd:import namespace="9f50c8a6-e5a4-43ce-b67f-ee4bc8ad8584"/>
@@ -5318,22 +5325,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8575168F-6331-41DA-B879-8152475B9854}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C0C9F9C-98B5-480F-B2D6-CAE7CFAF0133}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BBFAFF3-2553-4CE7-BB57-34E62801A110}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5350,21 +5359,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C0C9F9C-98B5-480F-B2D6-CAE7CFAF0133}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8575168F-6331-41DA-B879-8152475B9854}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>